--- a/Docs importantes/Experimento 3/solucionesDe100a1000.xlsx
+++ b/Docs importantes/Experimento 3/solucionesDe100a1000.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aleja\Desktop\Universidad\Cuarto de carrera\Segundo cuatrimestre\Prácticas investigación\Docs importantes\Experimento 3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Investigacion-maxima-diversidad\Docs importantes\Experimento 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C074316E-CCC2-4EAD-B38C-4EB3CE976C34}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B73809-BC13-4B7F-AF9E-A81C5C30E07A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{B065D4F3-B83E-481E-A520-D11A062EC736}"/>
+    <workbookView xWindow="28680" yWindow="-2850" windowWidth="24240" windowHeight="13140" xr2:uid="{B065D4F3-B83E-481E-A520-D11A062EC736}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -546,7 +546,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -852,7 +852,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1761759135"/>
@@ -914,7 +914,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1761764959"/>
@@ -956,7 +956,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -993,7 +993,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1901,85 +1901,85 @@
   <dimension ref="A2:BS44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="4.77734375" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="8.77734375" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
         <v>113</v>
@@ -2006,7 +2006,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>1.4339999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2078,7 +2078,7 @@
         <v>2.726</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>4.0620000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>5.3780000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2186,7 +2186,7 @@
         <v>6.835</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -2222,7 +2222,7 @@
         <v>8.2260000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>9.7880000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>11.209</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>8</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>12.41</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>13.471</v>
       </c>
     </row>
-    <row r="19" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>142.670510379028</v>
       </c>
     </row>
-    <row r="21" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>82</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>94.698903935104099</v>
       </c>
     </row>
-    <row r="22" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>279.92924487918998</v>
       </c>
     </row>
-    <row r="23" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>84</v>
       </c>
@@ -3441,7 +3441,7 @@
         <v>158.45409332382599</v>
       </c>
     </row>
-    <row r="24" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>85</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>196.16088334527899</v>
       </c>
     </row>
-    <row r="25" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>86</v>
       </c>
@@ -3871,7 +3871,7 @@
         <v>148.791870775246</v>
       </c>
     </row>
-    <row r="26" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>87</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>512.59809307131195</v>
       </c>
     </row>
-    <row r="27" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>88</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>106.08630499112699</v>
       </c>
     </row>
-    <row r="28" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -4516,7 +4516,7 @@
         <v>91.047743129715599</v>
       </c>
     </row>
-    <row r="29" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>90</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>123.337295333415</v>
       </c>
     </row>
-    <row r="30" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>91</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>191.74808233136201</v>
       </c>
     </row>
-    <row r="31" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>555.41802320142097</v>
       </c>
     </row>
-    <row r="32" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>93</v>
       </c>
@@ -5376,7 +5376,7 @@
         <v>116.76420752298699</v>
       </c>
     </row>
-    <row r="33" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>563.50827039335002</v>
       </c>
     </row>
-    <row r="34" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>95</v>
       </c>
@@ -5806,7 +5806,7 @@
         <v>841.47439055415703</v>
       </c>
     </row>
-    <row r="35" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -6021,7 +6021,7 @@
         <v>150.99959935978899</v>
       </c>
     </row>
-    <row r="36" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>76.030364430203804</v>
       </c>
     </row>
-    <row r="37" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>98</v>
       </c>
@@ -6451,7 +6451,7 @@
         <v>62.468388440111802</v>
       </c>
     </row>
-    <row r="38" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>99</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>73.877896585238304</v>
       </c>
     </row>
-    <row r="39" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>100</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>48.982535740166398</v>
       </c>
     </row>
-    <row r="40" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>101</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>4905.1394019660702</v>
       </c>
     </row>
-    <row r="41" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>102</v>
       </c>
@@ -7311,7 +7311,7 @@
         <v>16.657309228415102</v>
       </c>
     </row>
-    <row r="42" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>103</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>32.686352444055899</v>
       </c>
     </row>
-    <row r="43" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>104</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>9.0151939110181996</v>
       </c>
     </row>
-    <row r="44" spans="1:71" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:71" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>105</v>
       </c>

--- a/Docs importantes/Experimento 3/solucionesDe100a1000.xlsx
+++ b/Docs importantes/Experimento 3/solucionesDe100a1000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Investigacion-maxima-diversidad\Docs importantes\Experimento 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B73809-BC13-4B7F-AF9E-A81C5C30E07A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18723662-F598-4213-AAB8-626707A50816}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2850" windowWidth="24240" windowHeight="13140" xr2:uid="{B065D4F3-B83E-481E-A520-D11A062EC736}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B065D4F3-B83E-481E-A520-D11A062EC736}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>GRASPConstructive_Criterion1_Seed_13_SolCount_100</t>
   </si>
@@ -334,24 +334,6 @@
   </si>
   <si>
     <t>GKD-c_1_n500_m50.txt</t>
-  </si>
-  <si>
-    <t>MDG-a_9_n500_m50.txt</t>
-  </si>
-  <si>
-    <t>MDG-b_12_n500_m50.txt</t>
-  </si>
-  <si>
-    <t>SOM-a_18_n50_m15.txt</t>
-  </si>
-  <si>
-    <t>SOM-a_28_n100_m30.txt</t>
-  </si>
-  <si>
-    <t>SOM-a_33_n125_m12.txt</t>
-  </si>
-  <si>
-    <t>SOM-b_2_n100_m20.txt</t>
   </si>
   <si>
     <t>Time(s)</t>
@@ -632,34 +614,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.80173687114399173</c:v>
+                  <c:v>0.7768313709266127</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79606411682237366</c:v>
+                  <c:v>0.77493816540955607</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.74783015311900314</c:v>
+                  <c:v>0.73245673693896995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.72705967604080013</c:v>
+                  <c:v>0.68040682597022473</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.68062658889832761</c:v>
+                  <c:v>0.63989609650364765</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66791453561754277</c:v>
+                  <c:v>0.64330545167505948</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6109458179456263</c:v>
+                  <c:v>0.6034146955197065</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.6330371179231018</c:v>
+                  <c:v>0.60873897844021596</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.56859474041788671</c:v>
+                  <c:v>0.54824233024647007</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.57524542919400534</c:v>
+                  <c:v>0.56611867249837788</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -747,34 +729,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.21647995158974789</c:v>
+                  <c:v>0.25937343229973076</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25081264218225491</c:v>
+                  <c:v>0.30563499739274763</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.26252820310147063</c:v>
+                  <c:v>0.31869435995279372</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28919349735001243</c:v>
+                  <c:v>0.35638441123789127</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.29670991706229355</c:v>
+                  <c:v>0.35324432312789505</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.30472612962875023</c:v>
+                  <c:v>0.36394686148352445</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.31144488150049748</c:v>
+                  <c:v>0.36988410994893234</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.31654446409310372</c:v>
+                  <c:v>0.38038104161155273</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.3265461416016755</c:v>
+                  <c:v>0.38833251246917155</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.322454535123955</c:v>
+                  <c:v>0.38222773266184867</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1900,8 +1882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DAD9FA5-690B-47CE-BE64-185F13563F99}">
   <dimension ref="A2:BS44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1982,28 +1964,28 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2012,31 +1994,31 @@
       </c>
       <c r="B3" s="5">
         <f>AVERAGE(B20:B44)</f>
-        <v>0.80173687114399173</v>
+        <v>0.7768313709266127</v>
       </c>
       <c r="C3" s="5">
         <f t="shared" ref="C3:H3" si="0">AVERAGE(C20:C44)</f>
-        <v>0.21647995158974789</v>
+        <v>0.25937343229973076</v>
       </c>
       <c r="D3" s="5">
         <f t="shared" si="0"/>
-        <v>0.35312469631210319</v>
+        <v>0.30806858291944239</v>
       </c>
       <c r="E3" s="5">
         <f t="shared" si="0"/>
-        <v>12507.348145726755</v>
+        <v>7974.4601348654678</v>
       </c>
       <c r="F3" s="5">
         <f t="shared" si="0"/>
-        <v>13.52</v>
+        <v>14.789473684210526</v>
       </c>
       <c r="G3" s="5">
         <f t="shared" si="0"/>
-        <v>0.9808425142299011</v>
+        <v>0.97943413996370166</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" si="0"/>
-        <v>458.62361211380704</v>
+        <v>265.08592325034243</v>
       </c>
       <c r="I3" s="6">
         <v>1.4339999999999999</v>
@@ -2048,31 +2030,31 @@
       </c>
       <c r="B4" s="5">
         <f>AVERAGE(I20:I44)</f>
-        <v>0.79606411682237366</v>
+        <v>0.77493816540955607</v>
       </c>
       <c r="C4" s="5">
         <f t="shared" ref="C4:H4" si="1">AVERAGE(J20:J44)</f>
-        <v>0.25081264218225491</v>
+        <v>0.30563499739274763</v>
       </c>
       <c r="D4" s="5">
         <f t="shared" si="1"/>
-        <v>0.33894423461052997</v>
+        <v>0.29391215612383048</v>
       </c>
       <c r="E4" s="5">
         <f t="shared" si="1"/>
-        <v>11922.514818429165</v>
+        <v>6738.5112697298246</v>
       </c>
       <c r="F4" s="5">
         <f t="shared" si="1"/>
-        <v>17.920000000000002</v>
+        <v>19.105263157894736</v>
       </c>
       <c r="G4" s="5">
         <f t="shared" si="1"/>
-        <v>0.9796978527687682</v>
+        <v>0.97866826797662465</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="1"/>
-        <v>421.0796383436051</v>
+        <v>257.33624492553952</v>
       </c>
       <c r="I4" s="6">
         <v>2.726</v>
@@ -2084,31 +2066,31 @@
       </c>
       <c r="B5" s="5">
         <f>AVERAGE(P20:P44)</f>
-        <v>0.74783015311900314</v>
+        <v>0.73245673693896995</v>
       </c>
       <c r="C5" s="5">
         <f t="shared" ref="C5:H5" si="2">AVERAGE(Q20:Q44)</f>
-        <v>0.26252820310147063</v>
+        <v>0.31869435995279372</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="2"/>
-        <v>0.28521994558314234</v>
+        <v>0.2339185298248036</v>
       </c>
       <c r="E5" s="5">
         <f t="shared" si="2"/>
-        <v>12156.318454374225</v>
+        <v>6679.3314027979795</v>
       </c>
       <c r="F5" s="5">
         <f t="shared" si="2"/>
-        <v>21.72</v>
+        <v>23.473684210526315</v>
       </c>
       <c r="G5" s="5">
         <f t="shared" si="2"/>
-        <v>0.97757281809811047</v>
+        <v>0.97556116604988385</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="2"/>
-        <v>412.2479979827412</v>
+        <v>250.98233051854933</v>
       </c>
       <c r="I5" s="6">
         <v>4.0620000000000003</v>
@@ -2120,31 +2102,31 @@
       </c>
       <c r="B6" s="5">
         <f>AVERAGE(W20:W44)</f>
-        <v>0.72705967604080013</v>
+        <v>0.68040682597022473</v>
       </c>
       <c r="C6" s="5">
         <f t="shared" ref="C6:H6" si="3">AVERAGE(X20:X44)</f>
-        <v>0.28919349735001243</v>
+        <v>0.35638441123789127</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="3"/>
-        <v>0.24090991941607282</v>
+        <v>0.20512874009502083</v>
       </c>
       <c r="E6" s="5">
         <f t="shared" si="3"/>
-        <v>9031.4113440506153</v>
+        <v>6303.3816669047255</v>
       </c>
       <c r="F6" s="5">
         <f t="shared" si="3"/>
-        <v>24.4</v>
+        <v>24.894736842105264</v>
       </c>
       <c r="G6" s="5">
         <f t="shared" si="3"/>
-        <v>0.97526450549444488</v>
+        <v>0.97334987530324046</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="3"/>
-        <v>404.36654395280266</v>
+        <v>248.63828480999842</v>
       </c>
       <c r="I6" s="6">
         <v>5.3780000000000001</v>
@@ -2156,31 +2138,31 @@
       </c>
       <c r="B7" s="5">
         <f>AVERAGE(AD20:AD44)</f>
-        <v>0.68062658889832761</v>
+        <v>0.63989609650364765</v>
       </c>
       <c r="C7" s="5">
         <f t="shared" ref="C7:H7" si="4">AVERAGE(AE20:AE44)</f>
-        <v>0.29670991706229355</v>
+        <v>0.35324432312789505</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="4"/>
-        <v>0.23589355726511246</v>
+        <v>0.17474174608779827</v>
       </c>
       <c r="E7" s="5">
         <f t="shared" si="4"/>
-        <v>9268.2450164011407</v>
+        <v>5477.2128594500609</v>
       </c>
       <c r="F7" s="5">
         <f t="shared" si="4"/>
-        <v>26.36</v>
+        <v>27.631578947368421</v>
       </c>
       <c r="G7" s="5">
         <f t="shared" si="4"/>
-        <v>0.98020978715048201</v>
+        <v>0.97691755686733917</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="4"/>
-        <v>425.29770071393943</v>
+        <v>251.44909447189931</v>
       </c>
       <c r="I7" s="6">
         <v>6.835</v>
@@ -2192,31 +2174,31 @@
       </c>
       <c r="B8" s="5">
         <f>AVERAGE(AK20:AK44)</f>
-        <v>0.66791453561754277</v>
+        <v>0.64330545167505948</v>
       </c>
       <c r="C8" s="5">
         <f t="shared" ref="C8:H8" si="5">AVERAGE(AL20:AL44)</f>
-        <v>0.30472612962875023</v>
+        <v>0.36394686148352445</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" si="5"/>
-        <v>0.26397109708991057</v>
+        <v>0.21658317030258234</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" si="5"/>
-        <v>8994.7527358501866</v>
+        <v>5883.9651107873724</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" si="5"/>
-        <v>29.28</v>
+        <v>31.263157894736842</v>
       </c>
       <c r="G8" s="5">
         <f t="shared" si="5"/>
-        <v>0.97556558101267687</v>
+        <v>0.97332983741317136</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="5"/>
-        <v>404.3651051637932</v>
+        <v>256.8634044848136</v>
       </c>
       <c r="I8" s="6">
         <v>8.2260000000000009</v>
@@ -2228,31 +2210,31 @@
       </c>
       <c r="B9" s="8">
         <f>AVERAGE(AR20:AR44)</f>
-        <v>0.6109458179456263</v>
+        <v>0.6034146955197065</v>
       </c>
       <c r="C9" s="8">
         <f t="shared" ref="C9:H9" si="6">AVERAGE(AS20:AS44)</f>
-        <v>0.31144488150049748</v>
+        <v>0.36988410994893234</v>
       </c>
       <c r="D9" s="8">
         <f t="shared" si="6"/>
-        <v>0.23318569191231731</v>
+        <v>0.17519722508206262</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="6"/>
-        <v>9361.0759246769321</v>
+        <v>5102.3678984866265</v>
       </c>
       <c r="F9" s="8">
         <f t="shared" si="6"/>
-        <v>29.44</v>
+        <v>32.421052631578945</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="6"/>
-        <v>0.97588373411869911</v>
+        <v>0.97256045918410583</v>
       </c>
       <c r="H9" s="8">
         <f t="shared" si="6"/>
-        <v>392.8856360967938</v>
+        <v>252.31585463006812</v>
       </c>
       <c r="I9" s="9">
         <v>9.7880000000000003</v>
@@ -2264,31 +2246,31 @@
       </c>
       <c r="B10" s="5">
         <f>AVERAGE(AY20:AY44)</f>
-        <v>0.6330371179231018</v>
+        <v>0.60873897844021596</v>
       </c>
       <c r="C10" s="5">
         <f t="shared" ref="C10:H10" si="7">AVERAGE(AZ20:AZ44)</f>
-        <v>0.31654446409310372</v>
+        <v>0.38038104161155273</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" si="7"/>
-        <v>0.22356653130841725</v>
+        <v>0.15801735894087809</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" si="7"/>
-        <v>8196.567950734905</v>
+        <v>5051.4280256794027</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" si="7"/>
-        <v>33.840000000000003</v>
+        <v>36.631578947368418</v>
       </c>
       <c r="G10" s="5">
         <f t="shared" si="7"/>
-        <v>0.9752483797829492</v>
+        <v>0.9723509677853216</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="7"/>
-        <v>371.56463834498578</v>
+        <v>232.17157445876842</v>
       </c>
       <c r="I10" s="6">
         <v>11.209</v>
@@ -2300,31 +2282,31 @@
       </c>
       <c r="B11" s="5">
         <f>AVERAGE(BF20:BF44)</f>
-        <v>0.56859474041788671</v>
+        <v>0.54824233024647007</v>
       </c>
       <c r="C11" s="5">
         <f t="shared" ref="C11:H11" si="8">AVERAGE(BG20:BG44)</f>
-        <v>0.3265461416016755</v>
+        <v>0.38833251246917155</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" si="8"/>
-        <v>0.20856479606672007</v>
+        <v>0.1537467697702585</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="8"/>
-        <v>7422.7526432835675</v>
+        <v>5034.5625529222962</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="8"/>
-        <v>33.4</v>
+        <v>35.315789473684212</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="8"/>
-        <v>0.97505877144673436</v>
+        <v>0.9720184380209711</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="8"/>
-        <v>369.39780594733287</v>
+        <v>232.39996974908254</v>
       </c>
       <c r="I11" s="6">
         <v>12.41</v>
@@ -2336,31 +2318,31 @@
       </c>
       <c r="B12" s="5">
         <f>AVERAGE(BM20:BM44)</f>
-        <v>0.57524542919400534</v>
+        <v>0.56611867249837788</v>
       </c>
       <c r="C12" s="5">
         <f t="shared" ref="C12:H12" si="9">AVERAGE(BN20:BN44)</f>
-        <v>0.322454535123955</v>
+        <v>0.38222773266184867</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" si="9"/>
-        <v>0.21563246138382805</v>
+        <v>0.15170676980053657</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" si="9"/>
-        <v>7568.7832500898458</v>
+        <v>4377.9204432708912</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" si="9"/>
-        <v>34.76</v>
+        <v>37.736842105263158</v>
       </c>
       <c r="G12" s="5">
         <f t="shared" si="9"/>
-        <v>0.97542776408174892</v>
+        <v>0.97284599940961392</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" si="9"/>
-        <v>380.64743043646166</v>
+        <v>236.10864031483484</v>
       </c>
       <c r="I12" s="6">
         <v>13.471</v>
@@ -6667,1294 +6649,436 @@
       </c>
     </row>
     <row r="39" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>100</v>
-      </c>
-      <c r="B39" s="1">
-        <v>0.83333333333333304</v>
-      </c>
-      <c r="C39" s="1">
-        <v>6.7591754839524995E-2</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0.34351110136528701</v>
-      </c>
-      <c r="E39" s="1">
-        <v>2043.1575377854999</v>
-      </c>
-      <c r="F39" s="1">
-        <v>12</v>
-      </c>
-      <c r="G39" s="1">
-        <v>1.0035545526994301</v>
-      </c>
-      <c r="H39" s="1">
-        <v>64.337847580014099</v>
-      </c>
-      <c r="I39" s="1">
-        <v>0.77777777777777701</v>
-      </c>
-      <c r="J39" s="1">
-        <v>8.4040461479348003E-2</v>
-      </c>
-      <c r="K39" s="1">
-        <v>0.316739459545958</v>
-      </c>
-      <c r="L39" s="1">
-        <v>1644.7574910293199</v>
-      </c>
-      <c r="M39" s="1">
-        <v>18</v>
-      </c>
-      <c r="N39" s="1">
-        <v>0.98736757014884602</v>
-      </c>
-      <c r="O39" s="1">
-        <v>57.532790558901503</v>
-      </c>
-      <c r="P39" s="1">
-        <v>0.73076923076922995</v>
-      </c>
-      <c r="Q39" s="1">
-        <v>0.11957379870087501</v>
-      </c>
-      <c r="R39" s="1">
-        <v>0.242894903626138</v>
-      </c>
-      <c r="S39" s="1">
-        <v>1372.8553133917301</v>
-      </c>
-      <c r="T39" s="1">
-        <v>26</v>
-      </c>
-      <c r="U39" s="1">
-        <v>0.98830080740632598</v>
-      </c>
-      <c r="V39" s="1">
-        <v>55.449568655861</v>
-      </c>
-      <c r="W39" s="1">
-        <v>0.83783783783783705</v>
-      </c>
-      <c r="X39" s="1">
-        <v>6.9380764084929797E-2</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>0.26274570228735</v>
-      </c>
-      <c r="Z39" s="1">
-        <v>1156.3998728586901</v>
-      </c>
-      <c r="AA39" s="1">
-        <v>37</v>
-      </c>
-      <c r="AB39" s="1">
-        <v>0.99197953408328299</v>
-      </c>
-      <c r="AC39" s="1">
-        <v>52.530217788517298</v>
-      </c>
-      <c r="AD39" s="1">
-        <v>0.77083333333333304</v>
-      </c>
-      <c r="AE39" s="1">
-        <v>0.108555480659371</v>
-      </c>
-      <c r="AF39" s="1">
-        <v>0.206799817476367</v>
-      </c>
-      <c r="AG39" s="1">
-        <v>1022.8530723794401</v>
-      </c>
-      <c r="AH39" s="1">
-        <v>48</v>
-      </c>
-      <c r="AI39" s="1">
-        <v>0.982642745292996</v>
-      </c>
-      <c r="AJ39" s="1">
-        <v>51.8166976353519</v>
-      </c>
-      <c r="AK39" s="1">
-        <v>0.77500000000000002</v>
-      </c>
-      <c r="AL39" s="1">
-        <v>9.8908251478913897E-2</v>
-      </c>
-      <c r="AM39" s="1">
-        <v>0.271620823696548</v>
-      </c>
-      <c r="AN39" s="1">
-        <v>1110.0812655545899</v>
-      </c>
-      <c r="AO39" s="1">
-        <v>40</v>
-      </c>
-      <c r="AP39" s="1">
-        <v>0.98204275783835704</v>
-      </c>
-      <c r="AQ39" s="1">
-        <v>42.173750317803297</v>
-      </c>
-      <c r="AR39" s="1">
-        <v>0.67500000000000004</v>
-      </c>
-      <c r="AS39" s="1">
-        <v>0.130383491043948</v>
-      </c>
-      <c r="AT39" s="1">
-        <v>0.15469701159757601</v>
-      </c>
-      <c r="AU39" s="1">
-        <v>1128.8410820716499</v>
-      </c>
-      <c r="AV39" s="1">
-        <v>40</v>
-      </c>
-      <c r="AW39" s="1">
-        <v>0.99050707502410296</v>
-      </c>
-      <c r="AX39" s="1">
-        <v>51.1626873073022</v>
-      </c>
-      <c r="AY39" s="1">
-        <v>0.67567567567567499</v>
-      </c>
-      <c r="AZ39" s="1">
-        <v>0.122797800064884</v>
-      </c>
-      <c r="BA39" s="1">
-        <v>0.23552554202871301</v>
-      </c>
-      <c r="BB39" s="1">
-        <v>1166.9649995362099</v>
-      </c>
-      <c r="BC39" s="1">
-        <v>37</v>
-      </c>
-      <c r="BD39" s="1">
-        <v>0.98887098769818305</v>
-      </c>
-      <c r="BE39" s="1">
-        <v>48.161390738402098</v>
-      </c>
-      <c r="BF39" s="1">
-        <v>0.68181818181818099</v>
-      </c>
-      <c r="BG39" s="1">
-        <v>0.162277607352902</v>
-      </c>
-      <c r="BH39" s="1">
-        <v>0.16303376055534299</v>
-      </c>
-      <c r="BI39" s="1">
-        <v>1063.1554600470199</v>
-      </c>
-      <c r="BJ39" s="1">
-        <v>44</v>
-      </c>
-      <c r="BK39" s="1">
-        <v>0.984721429574969</v>
-      </c>
-      <c r="BL39" s="1">
-        <v>41.502108927832303</v>
-      </c>
-      <c r="BM39" s="1">
-        <v>0.452380952380952</v>
-      </c>
-      <c r="BN39" s="1">
-        <v>0.15559022171807099</v>
-      </c>
-      <c r="BO39" s="1">
-        <v>0.18518518518518501</v>
-      </c>
-      <c r="BP39" s="1">
-        <v>1118.5969357629499</v>
-      </c>
-      <c r="BQ39" s="1">
-        <v>42</v>
-      </c>
-      <c r="BR39" s="1">
-        <v>0.99038546355638801</v>
-      </c>
-      <c r="BS39" s="1">
-        <v>48.982535740166398</v>
-      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1"/>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1"/>
+      <c r="AM39" s="1"/>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1"/>
+      <c r="AP39" s="1"/>
+      <c r="AQ39" s="1"/>
+      <c r="AR39" s="1"/>
+      <c r="AS39" s="1"/>
+      <c r="AT39" s="1"/>
+      <c r="AU39" s="1"/>
+      <c r="AV39" s="1"/>
+      <c r="AW39" s="1"/>
+      <c r="AX39" s="1"/>
+      <c r="AY39" s="1"/>
+      <c r="AZ39" s="1"/>
+      <c r="BA39" s="1"/>
+      <c r="BB39" s="1"/>
+      <c r="BC39" s="1"/>
+      <c r="BD39" s="1"/>
+      <c r="BE39" s="1"/>
+      <c r="BF39" s="1"/>
+      <c r="BG39" s="1"/>
+      <c r="BH39" s="1"/>
+      <c r="BI39" s="1"/>
+      <c r="BJ39" s="1"/>
+      <c r="BK39" s="1"/>
+      <c r="BL39" s="1"/>
+      <c r="BM39" s="1"/>
+      <c r="BN39" s="1"/>
+      <c r="BO39" s="1"/>
+      <c r="BP39" s="1"/>
+      <c r="BQ39" s="1"/>
+      <c r="BR39" s="1"/>
+      <c r="BS39" s="1"/>
     </row>
     <row r="40" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>101</v>
-      </c>
-      <c r="B40" s="1">
-        <v>0.89473684210526305</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0.114100930936179</v>
-      </c>
-      <c r="D40" s="1">
-        <v>0.245588945253603</v>
-      </c>
-      <c r="E40" s="1">
-        <v>157167.72497137199</v>
-      </c>
-      <c r="F40" s="1">
-        <v>19</v>
-      </c>
-      <c r="G40" s="1">
-        <v>0.99370702626212204</v>
-      </c>
-      <c r="H40" s="1">
-        <v>6270.9592176186197</v>
-      </c>
-      <c r="I40" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="J40" s="1">
-        <v>0.13040677688471999</v>
-      </c>
-      <c r="K40" s="1">
-        <v>0.239202106031179</v>
-      </c>
-      <c r="L40" s="1">
-        <v>167130.18262452501</v>
-      </c>
-      <c r="M40" s="1">
-        <v>18</v>
-      </c>
-      <c r="N40" s="1">
-        <v>0.99169716702252897</v>
-      </c>
-      <c r="O40" s="1">
-        <v>5487.4477486646101</v>
-      </c>
-      <c r="P40" s="1">
-        <v>0.70588235294117596</v>
-      </c>
-      <c r="Q40" s="1">
-        <v>0.156545638923962</v>
-      </c>
-      <c r="R40" s="1">
-        <v>0.165373891503375</v>
-      </c>
-      <c r="S40" s="1">
-        <v>173872.35168145399</v>
-      </c>
-      <c r="T40" s="1">
-        <v>17</v>
-      </c>
-      <c r="U40" s="1">
-        <v>1.0034731006717199</v>
-      </c>
-      <c r="V40" s="1">
-        <v>5401.3923763761704</v>
-      </c>
-      <c r="W40" s="1">
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="X40" s="1">
-        <v>0.107151902045706</v>
-      </c>
-      <c r="Y40" s="1">
-        <v>0.19588955464240901</v>
-      </c>
-      <c r="Z40" s="1">
-        <v>103383.53420594</v>
-      </c>
-      <c r="AA40" s="1">
-        <v>45</v>
-      </c>
-      <c r="AB40" s="1">
-        <v>0.98613552312753705</v>
-      </c>
-      <c r="AC40" s="1">
-        <v>5249.8700325562204</v>
-      </c>
-      <c r="AD40" s="1">
-        <v>0.65625</v>
-      </c>
-      <c r="AE40" s="1">
-        <v>0.183967389832803</v>
-      </c>
-      <c r="AF40" s="1">
-        <v>0.13188384698001099</v>
-      </c>
-      <c r="AG40" s="1">
-        <v>125244.458040884</v>
-      </c>
-      <c r="AH40" s="1">
-        <v>32</v>
-      </c>
-      <c r="AI40" s="1">
-        <v>0.98848321837123998</v>
-      </c>
-      <c r="AJ40" s="1">
-        <v>5720.3021906226004</v>
-      </c>
-      <c r="AK40" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="AL40" s="1">
-        <v>0.154446742265098</v>
-      </c>
-      <c r="AM40" s="1">
-        <v>0.20883022815337701</v>
-      </c>
-      <c r="AN40" s="1">
-        <v>110759.96385306001</v>
-      </c>
-      <c r="AO40" s="1">
-        <v>40</v>
-      </c>
-      <c r="AP40" s="1">
-        <v>0.98713953790305697</v>
-      </c>
-      <c r="AQ40" s="1">
-        <v>5107.7322630870003</v>
-      </c>
-      <c r="AR40" s="1">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="AS40" s="1">
-        <v>0.164697268402829</v>
-      </c>
-      <c r="AT40" s="1">
-        <v>0.181912295365453</v>
-      </c>
-      <c r="AU40" s="1">
-        <v>134355.83442209999</v>
-      </c>
-      <c r="AV40" s="1">
-        <v>28</v>
-      </c>
-      <c r="AW40" s="1">
-        <v>0.99910605740242597</v>
-      </c>
-      <c r="AX40" s="1">
-        <v>4899.67888053359</v>
-      </c>
-      <c r="AY40" s="1">
-        <v>0.47727272727272702</v>
-      </c>
-      <c r="AZ40" s="1">
-        <v>0.16506893491998001</v>
-      </c>
-      <c r="BA40" s="1">
-        <v>0.20527617477328899</v>
-      </c>
-      <c r="BB40" s="1">
-        <v>106499.555092696</v>
-      </c>
-      <c r="BC40" s="1">
-        <v>44</v>
-      </c>
-      <c r="BD40" s="1">
-        <v>0.98756140965557404</v>
-      </c>
-      <c r="BE40" s="1">
-        <v>4751.9231375588097</v>
-      </c>
-      <c r="BF40" s="1">
-        <v>0.63636363636363602</v>
-      </c>
-      <c r="BG40" s="1">
-        <v>0.16654089884064299</v>
-      </c>
-      <c r="BH40" s="1">
-        <v>0.19950535861500401</v>
-      </c>
-      <c r="BI40" s="1">
-        <v>87418.178773870895</v>
-      </c>
-      <c r="BJ40" s="1">
-        <v>66</v>
-      </c>
-      <c r="BK40" s="1">
-        <v>0.98501416727762203</v>
-      </c>
-      <c r="BL40" s="1">
-        <v>4699.2782125741996</v>
-      </c>
-      <c r="BM40" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BN40" s="1">
-        <v>0.20331636627341701</v>
-      </c>
-      <c r="BO40" s="1">
-        <v>0.17716597716857599</v>
-      </c>
-      <c r="BP40" s="1">
-        <v>103376.326255534</v>
-      </c>
-      <c r="BQ40" s="1">
-        <v>48</v>
-      </c>
-      <c r="BR40" s="1">
-        <v>0.99314078263760197</v>
-      </c>
-      <c r="BS40" s="1">
-        <v>4905.1394019660702</v>
-      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1"/>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1"/>
+      <c r="AM40" s="1"/>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="1"/>
+      <c r="AR40" s="1"/>
+      <c r="AS40" s="1"/>
+      <c r="AT40" s="1"/>
+      <c r="AU40" s="1"/>
+      <c r="AV40" s="1"/>
+      <c r="AW40" s="1"/>
+      <c r="AX40" s="1"/>
+      <c r="AY40" s="1"/>
+      <c r="AZ40" s="1"/>
+      <c r="BA40" s="1"/>
+      <c r="BB40" s="1"/>
+      <c r="BC40" s="1"/>
+      <c r="BD40" s="1"/>
+      <c r="BE40" s="1"/>
+      <c r="BF40" s="1"/>
+      <c r="BG40" s="1"/>
+      <c r="BH40" s="1"/>
+      <c r="BI40" s="1"/>
+      <c r="BJ40" s="1"/>
+      <c r="BK40" s="1"/>
+      <c r="BL40" s="1"/>
+      <c r="BM40" s="1"/>
+      <c r="BN40" s="1"/>
+      <c r="BO40" s="1"/>
+      <c r="BP40" s="1"/>
+      <c r="BQ40" s="1"/>
+      <c r="BR40" s="1"/>
+      <c r="BS40" s="1"/>
     </row>
     <row r="41" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>102</v>
-      </c>
-      <c r="B41" s="1">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="C41" s="1">
-        <v>9.4932432432432406E-2</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0.54999999999999905</v>
-      </c>
-      <c r="E41" s="1">
-        <v>198.66160715241</v>
-      </c>
-      <c r="F41" s="1">
-        <v>9</v>
-      </c>
-      <c r="G41" s="1">
-        <v>0.97707006072455205</v>
-      </c>
-      <c r="H41" s="1">
-        <v>16.4474096469656</v>
-      </c>
-      <c r="I41" s="1">
-        <v>1</v>
-      </c>
-      <c r="J41" s="1">
-        <v>7.1912537537537499E-2</v>
-      </c>
-      <c r="K41" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L41" s="1">
-        <v>152.04103599197899</v>
-      </c>
-      <c r="M41" s="1">
-        <v>15</v>
-      </c>
-      <c r="N41" s="1">
-        <v>0.96585277556966098</v>
-      </c>
-      <c r="O41" s="1">
-        <v>17.517064735935499</v>
-      </c>
-      <c r="P41" s="1">
-        <v>0.90909090909090895</v>
-      </c>
-      <c r="Q41" s="1">
-        <v>5.6953828828828802E-2</v>
-      </c>
-      <c r="R41" s="1">
-        <v>0.44444444444444398</v>
-      </c>
-      <c r="S41" s="1">
-        <v>125.821593579466</v>
-      </c>
-      <c r="T41" s="1">
-        <v>22</v>
-      </c>
-      <c r="U41" s="1">
-        <v>0.96429978716391296</v>
-      </c>
-      <c r="V41" s="1">
-        <v>12.453641727588</v>
-      </c>
-      <c r="W41" s="1">
-        <v>1</v>
-      </c>
-      <c r="X41" s="1">
-        <v>1.75018768768768E-2</v>
-      </c>
-      <c r="Y41" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Z41" s="1">
-        <v>134.63147255348699</v>
-      </c>
-      <c r="AA41" s="1">
-        <v>18</v>
-      </c>
-      <c r="AB41" s="1">
-        <v>0.96818317741750703</v>
-      </c>
-      <c r="AC41" s="1">
-        <v>15.528550196846201</v>
-      </c>
-      <c r="AD41" s="1">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="AE41" s="1">
-        <v>0.116638513513513</v>
-      </c>
-      <c r="AF41" s="1">
-        <v>0.44444444444444398</v>
-      </c>
-      <c r="AG41" s="1">
-        <v>140.929574829871</v>
-      </c>
-      <c r="AH41" s="1">
-        <v>18</v>
-      </c>
-      <c r="AI41" s="1">
-        <v>0.98362170153157202</v>
-      </c>
-      <c r="AJ41" s="1">
-        <v>17.446299334046198</v>
-      </c>
-      <c r="AK41" s="1">
-        <v>0.54545454545454497</v>
-      </c>
-      <c r="AL41" s="1">
-        <v>0.151360735735735</v>
-      </c>
-      <c r="AM41" s="1">
-        <v>0.45945945945945899</v>
-      </c>
-      <c r="AN41" s="1">
-        <v>172.782275636138</v>
-      </c>
-      <c r="AO41" s="1">
-        <v>11</v>
-      </c>
-      <c r="AP41" s="1">
-        <v>0.980282444758663</v>
-      </c>
-      <c r="AQ41" s="1">
-        <v>14.5354773472794</v>
-      </c>
-      <c r="AR41" s="1">
-        <v>0.95454545454545403</v>
-      </c>
-      <c r="AS41" s="1">
-        <v>9.0127627627627604E-2</v>
-      </c>
-      <c r="AT41" s="1">
-        <v>0.35</v>
-      </c>
-      <c r="AU41" s="1">
-        <v>122.127989489524</v>
-      </c>
-      <c r="AV41" s="1">
-        <v>22</v>
-      </c>
-      <c r="AW41" s="1">
-        <v>0.95825494698193103</v>
-      </c>
-      <c r="AX41" s="1">
-        <v>13.707638539140101</v>
-      </c>
-      <c r="AY41" s="1">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="AZ41" s="1">
-        <v>0.116272522522522</v>
-      </c>
-      <c r="BA41" s="1">
-        <v>0.38888888888888801</v>
-      </c>
-      <c r="BB41" s="1">
-        <v>151.61884173388299</v>
-      </c>
-      <c r="BC41" s="1">
-        <v>15</v>
-      </c>
-      <c r="BD41" s="1">
-        <v>0.967710706391397</v>
-      </c>
-      <c r="BE41" s="1">
-        <v>11.4558827978903</v>
-      </c>
-      <c r="BF41" s="1">
-        <v>0.84615384615384603</v>
-      </c>
-      <c r="BG41" s="1">
-        <v>9.8536036036036001E-2</v>
-      </c>
-      <c r="BH41" s="1">
-        <v>0.44999999999999901</v>
-      </c>
-      <c r="BI41" s="1">
-        <v>163.90991552119499</v>
-      </c>
-      <c r="BJ41" s="1">
-        <v>13</v>
-      </c>
-      <c r="BK41" s="1">
-        <v>0.98552338404818796</v>
-      </c>
-      <c r="BL41" s="1">
-        <v>16.4474096469656</v>
-      </c>
-      <c r="BM41" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="BN41" s="1">
-        <v>8.41591591591591E-2</v>
-      </c>
-      <c r="BO41" s="1">
-        <v>0.38888888888888801</v>
-      </c>
-      <c r="BP41" s="1">
-        <v>147.64997688189899</v>
-      </c>
-      <c r="BQ41" s="1">
-        <v>16</v>
-      </c>
-      <c r="BR41" s="1">
-        <v>0.98067367830372798</v>
-      </c>
-      <c r="BS41" s="1">
-        <v>16.657309228415102</v>
-      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1"/>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1"/>
+      <c r="AM41" s="1"/>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="1"/>
+      <c r="AR41" s="1"/>
+      <c r="AS41" s="1"/>
+      <c r="AT41" s="1"/>
+      <c r="AU41" s="1"/>
+      <c r="AV41" s="1"/>
+      <c r="AW41" s="1"/>
+      <c r="AX41" s="1"/>
+      <c r="AY41" s="1"/>
+      <c r="AZ41" s="1"/>
+      <c r="BA41" s="1"/>
+      <c r="BB41" s="1"/>
+      <c r="BC41" s="1"/>
+      <c r="BD41" s="1"/>
+      <c r="BE41" s="1"/>
+      <c r="BF41" s="1"/>
+      <c r="BG41" s="1"/>
+      <c r="BH41" s="1"/>
+      <c r="BI41" s="1"/>
+      <c r="BJ41" s="1"/>
+      <c r="BK41" s="1"/>
+      <c r="BL41" s="1"/>
+      <c r="BM41" s="1"/>
+      <c r="BN41" s="1"/>
+      <c r="BO41" s="1"/>
+      <c r="BP41" s="1"/>
+      <c r="BQ41" s="1"/>
+      <c r="BR41" s="1"/>
+      <c r="BS41" s="1"/>
     </row>
     <row r="42" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>103</v>
-      </c>
-      <c r="B42" s="1">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-      <c r="D42" s="1">
-        <v>1</v>
-      </c>
-      <c r="E42" s="1">
-        <v>1175.77029351392</v>
-      </c>
-      <c r="F42" s="1">
-        <v>4</v>
-      </c>
-      <c r="G42" s="1">
-        <v>0.99542333169939101</v>
-      </c>
-      <c r="H42" s="1">
-        <v>39.677514792899402</v>
-      </c>
-      <c r="I42" s="1">
-        <v>1</v>
-      </c>
-      <c r="J42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="1">
-        <v>1</v>
-      </c>
-      <c r="L42" s="1">
-        <v>654.83345763561204</v>
-      </c>
-      <c r="M42" s="1">
-        <v>12</v>
-      </c>
-      <c r="N42" s="1">
-        <v>0.98852300704692198</v>
-      </c>
-      <c r="O42" s="1">
-        <v>38.684980265266603</v>
-      </c>
-      <c r="P42" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>0</v>
-      </c>
-      <c r="R42" s="1">
-        <v>1</v>
-      </c>
-      <c r="S42" s="1">
-        <v>1223.8918192420799</v>
-      </c>
-      <c r="T42" s="1">
-        <v>4</v>
-      </c>
-      <c r="U42" s="1">
-        <v>0.99715532599492795</v>
-      </c>
-      <c r="V42" s="1">
-        <v>35.685608614998799</v>
-      </c>
-      <c r="W42" s="1">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="X42" s="1">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Z42" s="1">
-        <v>974.82951412587499</v>
-      </c>
-      <c r="AA42" s="1">
-        <v>6</v>
-      </c>
-      <c r="AB42" s="1">
-        <v>0.99828454380008802</v>
-      </c>
-      <c r="AC42" s="1">
-        <v>33.686089763537503</v>
-      </c>
-      <c r="AD42" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="1">
-        <v>1</v>
-      </c>
-      <c r="AG42" s="1">
-        <v>841.11870458856799</v>
-      </c>
-      <c r="AH42" s="1">
-        <v>8</v>
-      </c>
-      <c r="AI42" s="1">
-        <v>1.0281292194591201</v>
-      </c>
-      <c r="AJ42" s="1">
-        <v>34.685842245820801</v>
-      </c>
-      <c r="AK42" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AM42" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN42" s="1">
-        <v>678.05273538220501</v>
-      </c>
-      <c r="AO42" s="1">
-        <v>12</v>
-      </c>
-      <c r="AP42" s="1">
-        <v>0.99180604646416104</v>
-      </c>
-      <c r="AQ42" s="1">
-        <v>33.686089763537503</v>
-      </c>
-      <c r="AR42" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="AS42" s="1">
-        <v>0</v>
-      </c>
-      <c r="AT42" s="1">
-        <v>1</v>
-      </c>
-      <c r="AU42" s="1">
-        <v>1036.0242190035699</v>
-      </c>
-      <c r="AV42" s="1">
-        <v>5</v>
-      </c>
-      <c r="AW42" s="1">
-        <v>0.99774348594774398</v>
-      </c>
-      <c r="AX42" s="1">
-        <v>31.686631724504402</v>
-      </c>
-      <c r="AY42" s="1">
-        <v>0.88888888888888795</v>
-      </c>
-      <c r="AZ42" s="1">
-        <v>0</v>
-      </c>
-      <c r="BA42" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB42" s="1">
-        <v>800.719990839209</v>
-      </c>
-      <c r="BC42" s="1">
-        <v>9</v>
-      </c>
-      <c r="BD42" s="1">
-        <v>1.0076863396800799</v>
-      </c>
-      <c r="BE42" s="1">
-        <v>32.686352444055899</v>
-      </c>
-      <c r="BF42" s="1">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="BG42" s="1">
-        <v>0</v>
-      </c>
-      <c r="BH42" s="1">
-        <v>1</v>
-      </c>
-      <c r="BI42" s="1">
-        <v>907.19544879853504</v>
-      </c>
-      <c r="BJ42" s="1">
-        <v>7</v>
-      </c>
-      <c r="BK42" s="1">
-        <v>1.0049079692034899</v>
-      </c>
-      <c r="BL42" s="1">
-        <v>29.687246802875698</v>
-      </c>
-      <c r="BM42" s="1">
-        <v>0.6</v>
-      </c>
-      <c r="BN42" s="1">
-        <v>0</v>
-      </c>
-      <c r="BO42" s="1">
-        <v>1</v>
-      </c>
-      <c r="BP42" s="1">
-        <v>1073.12302437274</v>
-      </c>
-      <c r="BQ42" s="1">
-        <v>5</v>
-      </c>
-      <c r="BR42" s="1">
-        <v>0.995428216851453</v>
-      </c>
-      <c r="BS42" s="1">
-        <v>32.686352444055899</v>
-      </c>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1"/>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1"/>
+      <c r="AM42" s="1"/>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="1"/>
+      <c r="AR42" s="1"/>
+      <c r="AS42" s="1"/>
+      <c r="AT42" s="1"/>
+      <c r="AU42" s="1"/>
+      <c r="AV42" s="1"/>
+      <c r="AW42" s="1"/>
+      <c r="AX42" s="1"/>
+      <c r="AY42" s="1"/>
+      <c r="AZ42" s="1"/>
+      <c r="BA42" s="1"/>
+      <c r="BB42" s="1"/>
+      <c r="BC42" s="1"/>
+      <c r="BD42" s="1"/>
+      <c r="BE42" s="1"/>
+      <c r="BF42" s="1"/>
+      <c r="BG42" s="1"/>
+      <c r="BH42" s="1"/>
+      <c r="BI42" s="1"/>
+      <c r="BJ42" s="1"/>
+      <c r="BK42" s="1"/>
+      <c r="BL42" s="1"/>
+      <c r="BM42" s="1"/>
+      <c r="BN42" s="1"/>
+      <c r="BO42" s="1"/>
+      <c r="BP42" s="1"/>
+      <c r="BQ42" s="1"/>
+      <c r="BR42" s="1"/>
+      <c r="BS42" s="1"/>
     </row>
     <row r="43" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>104</v>
-      </c>
-      <c r="B43" s="1">
-        <v>1</v>
-      </c>
-      <c r="C43" s="1">
-        <v>3.3429118773946297E-2</v>
-      </c>
-      <c r="D43" s="1">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E43" s="1">
-        <v>155.390571644104</v>
-      </c>
-      <c r="F43" s="1">
-        <v>7</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0.96165617850635299</v>
-      </c>
-      <c r="H43" s="1">
-        <v>13.8993606983039</v>
-      </c>
-      <c r="I43" s="1">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1">
-        <v>6.3523706896551693E-2</v>
-      </c>
-      <c r="K43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="L43" s="1">
-        <v>122.28143062996</v>
-      </c>
-      <c r="M43" s="1">
-        <v>12</v>
-      </c>
-      <c r="N43" s="1">
-        <v>0.97001035386147405</v>
-      </c>
-      <c r="O43" s="1">
-        <v>10.7843164059625</v>
-      </c>
-      <c r="P43" s="1">
-        <v>0.93333333333333302</v>
-      </c>
-      <c r="Q43" s="1">
-        <v>6.2541906130268193E-2</v>
-      </c>
-      <c r="R43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="S43" s="1">
-        <v>110.268323711392</v>
-      </c>
-      <c r="T43" s="1">
-        <v>15</v>
-      </c>
-      <c r="U43" s="1">
-        <v>0.96720416921810104</v>
-      </c>
-      <c r="V43" s="1">
-        <v>12.9154348920116</v>
-      </c>
-      <c r="W43" s="1">
-        <v>0.92857142857142805</v>
-      </c>
-      <c r="X43" s="1">
-        <v>0.108333333333333</v>
-      </c>
-      <c r="Y43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>114.85987709394399</v>
-      </c>
-      <c r="AA43" s="1">
-        <v>14</v>
-      </c>
-      <c r="AB43" s="1">
-        <v>0.96612044634409699</v>
-      </c>
-      <c r="AC43" s="1">
-        <v>10.7843164059625</v>
-      </c>
-      <c r="AD43" s="1">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="AE43" s="1">
-        <v>0.15955459770114899</v>
-      </c>
-      <c r="AF43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AG43" s="1">
-        <v>125.16042557884001</v>
-      </c>
-      <c r="AH43" s="1">
-        <v>12</v>
-      </c>
-      <c r="AI43" s="1">
-        <v>0.977722467646025</v>
-      </c>
-      <c r="AJ43" s="1">
-        <v>10.9563239182886</v>
-      </c>
-      <c r="AK43" s="1">
-        <v>0.5625</v>
-      </c>
-      <c r="AL43" s="1">
-        <v>0.13860153256704899</v>
-      </c>
-      <c r="AM43" s="1">
-        <v>0.36781609195402198</v>
-      </c>
-      <c r="AN43" s="1">
-        <v>108.44119599749099</v>
-      </c>
-      <c r="AO43" s="1">
-        <v>16</v>
-      </c>
-      <c r="AP43" s="1">
-        <v>0.97306400580395103</v>
-      </c>
-      <c r="AQ43" s="1">
-        <v>10.9563239182886</v>
-      </c>
-      <c r="AR43" s="1">
-        <v>0.57142857142857095</v>
-      </c>
-      <c r="AS43" s="1">
-        <v>0.18994851532567</v>
-      </c>
-      <c r="AT43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="AU43" s="1">
-        <v>117.63311101264</v>
-      </c>
-      <c r="AV43" s="1">
-        <v>14</v>
-      </c>
-      <c r="AW43" s="1">
-        <v>0.99415358970836298</v>
-      </c>
-      <c r="AX43" s="1">
-        <v>10.2662228994004</v>
-      </c>
-      <c r="AY43" s="1">
-        <v>0.86956521739130399</v>
-      </c>
-      <c r="AZ43" s="1">
-        <v>9.5390325670498002E-2</v>
-      </c>
-      <c r="BA43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BB43" s="1">
-        <v>89.933395294123699</v>
-      </c>
-      <c r="BC43" s="1">
-        <v>23</v>
-      </c>
-      <c r="BD43" s="1">
-        <v>0.97622211590111496</v>
-      </c>
-      <c r="BE43" s="1">
-        <v>11.934183148493901</v>
-      </c>
-      <c r="BF43" s="1">
-        <v>0.5625</v>
-      </c>
-      <c r="BG43" s="1">
-        <v>0.13620090996168499</v>
-      </c>
-      <c r="BH43" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="BI43" s="1">
-        <v>109.322018214308</v>
-      </c>
-      <c r="BJ43" s="1">
-        <v>16</v>
-      </c>
-      <c r="BK43" s="1">
-        <v>0.96968862554048696</v>
-      </c>
-      <c r="BL43" s="1">
-        <v>9.7937647798677396</v>
-      </c>
-      <c r="BM43" s="1">
-        <v>0.4375</v>
-      </c>
-      <c r="BN43" s="1">
-        <v>0.18953544061302599</v>
-      </c>
-      <c r="BO43" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BP43" s="1">
-        <v>108.741700418649</v>
-      </c>
-      <c r="BQ43" s="1">
-        <v>16</v>
-      </c>
-      <c r="BR43" s="1">
-        <v>0.96374355755721297</v>
-      </c>
-      <c r="BS43" s="1">
-        <v>9.0151939110181996</v>
-      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1"/>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1"/>
+      <c r="AM43" s="1"/>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="1"/>
+      <c r="AR43" s="1"/>
+      <c r="AS43" s="1"/>
+      <c r="AT43" s="1"/>
+      <c r="AU43" s="1"/>
+      <c r="AV43" s="1"/>
+      <c r="AW43" s="1"/>
+      <c r="AX43" s="1"/>
+      <c r="AY43" s="1"/>
+      <c r="AZ43" s="1"/>
+      <c r="BA43" s="1"/>
+      <c r="BB43" s="1"/>
+      <c r="BC43" s="1"/>
+      <c r="BD43" s="1"/>
+      <c r="BE43" s="1"/>
+      <c r="BF43" s="1"/>
+      <c r="BG43" s="1"/>
+      <c r="BH43" s="1"/>
+      <c r="BI43" s="1"/>
+      <c r="BJ43" s="1"/>
+      <c r="BK43" s="1"/>
+      <c r="BL43" s="1"/>
+      <c r="BM43" s="1"/>
+      <c r="BN43" s="1"/>
+      <c r="BO43" s="1"/>
+      <c r="BP43" s="1"/>
+      <c r="BQ43" s="1"/>
+      <c r="BR43" s="1"/>
+      <c r="BS43" s="1"/>
     </row>
     <row r="44" spans="1:71" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>105</v>
-      </c>
-      <c r="B44" s="1">
-        <v>0.66666666666666596</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0.17384933906673</v>
-      </c>
-      <c r="D44" s="1">
-        <v>0.28571428571428498</v>
-      </c>
-      <c r="E44" s="1">
-        <v>428.256099257085</v>
-      </c>
-      <c r="F44" s="1">
-        <v>6</v>
-      </c>
-      <c r="G44" s="1">
-        <v>0.98040304654534505</v>
-      </c>
-      <c r="H44" s="1">
-        <v>23.636410751867299</v>
-      </c>
-      <c r="I44" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="J44" s="1">
-        <v>0.11336762129601</v>
-      </c>
-      <c r="K44" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="L44" s="1">
-        <v>327.060296050538</v>
-      </c>
-      <c r="M44" s="1">
-        <v>10</v>
-      </c>
-      <c r="N44" s="1">
-        <v>0.99429835401390498</v>
-      </c>
-      <c r="O44" s="1">
-        <v>25.635404374200899</v>
-      </c>
-      <c r="P44" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>0.112397065849751</v>
-      </c>
-      <c r="R44" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="S44" s="1">
-        <v>295.47597481528101</v>
-      </c>
-      <c r="T44" s="1">
-        <v>13</v>
-      </c>
-      <c r="U44" s="1">
-        <v>0.983225107049983</v>
-      </c>
-      <c r="V44" s="1">
-        <v>19.639039449463599</v>
-      </c>
-      <c r="W44" s="1">
-        <v>0.88235294117647001</v>
-      </c>
-      <c r="X44" s="1">
-        <v>0.156165743889529</v>
-      </c>
-      <c r="Y44" s="1">
-        <v>0.33333333333333298</v>
-      </c>
-      <c r="Z44" s="1">
-        <v>256.77698750361401</v>
-      </c>
-      <c r="AA44" s="1">
-        <v>17</v>
-      </c>
-      <c r="AB44" s="1">
-        <v>0.97726178182704204</v>
-      </c>
-      <c r="AC44" s="1">
-        <v>22.636980719011</v>
-      </c>
-      <c r="AD44" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="AE44" s="1">
-        <v>0.137389805420496</v>
-      </c>
-      <c r="AF44" s="1">
-        <v>0.29411764705882298</v>
-      </c>
-      <c r="AG44" s="1">
-        <v>264.56126221669098</v>
-      </c>
-      <c r="AH44" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI44" s="1">
-        <v>0.98321174598165095</v>
-      </c>
-      <c r="AJ44" s="1">
-        <v>19.702369126291799</v>
-      </c>
-      <c r="AK44" s="1">
-        <v>0.84210526315789402</v>
-      </c>
-      <c r="AL44" s="1">
-        <v>0.15984561048499599</v>
-      </c>
-      <c r="AM44" s="1">
-        <v>0.17647058823529399</v>
-      </c>
-      <c r="AN44" s="1">
-        <v>244.159965664189</v>
-      </c>
-      <c r="AO44" s="1">
-        <v>19</v>
-      </c>
-      <c r="AP44" s="1">
-        <v>0.98153782169846904</v>
-      </c>
-      <c r="AQ44" s="1">
-        <v>19.639039449463599</v>
-      </c>
-      <c r="AR44" s="1">
-        <v>0.63636363636363602</v>
-      </c>
-      <c r="AS44" s="1">
-        <v>0.183167046082647</v>
-      </c>
-      <c r="AT44" s="1">
-        <v>0.314285714285714</v>
-      </c>
-      <c r="AU44" s="1">
-        <v>321.44722200000803</v>
-      </c>
-      <c r="AV44" s="1">
-        <v>11</v>
-      </c>
-      <c r="AW44" s="1">
-        <v>0.97867947340490002</v>
-      </c>
-      <c r="AX44" s="1">
-        <v>21.637603444617401</v>
-      </c>
-      <c r="AY44" s="1">
-        <v>0.68181818181818099</v>
-      </c>
-      <c r="AZ44" s="1">
-        <v>0.18684222853020799</v>
-      </c>
-      <c r="BA44" s="1">
-        <v>0.25714285714285701</v>
-      </c>
-      <c r="BB44" s="1">
-        <v>228.273960364587</v>
-      </c>
-      <c r="BC44" s="1">
-        <v>22</v>
-      </c>
-      <c r="BD44" s="1">
-        <v>0.97848954732627302</v>
-      </c>
-      <c r="BE44" s="1">
-        <v>21.6950972203928</v>
-      </c>
-      <c r="BF44" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="BG44" s="1">
-        <v>0.221780350936361</v>
-      </c>
-      <c r="BH44" s="1">
-        <v>0.14705882352941099</v>
-      </c>
-      <c r="BI44" s="1">
-        <v>250.365960113612</v>
-      </c>
-      <c r="BJ44" s="1">
-        <v>18</v>
-      </c>
-      <c r="BK44" s="1">
-        <v>0.97826338812514901</v>
-      </c>
-      <c r="BL44" s="1">
-        <v>22.636980719011</v>
-      </c>
-      <c r="BM44" s="1">
-        <v>0.76</v>
-      </c>
-      <c r="BN44" s="1">
-        <v>0.166435269760077</v>
-      </c>
-      <c r="BO44" s="1">
-        <v>0.25714285714285701</v>
-      </c>
-      <c r="BP44" s="1">
-        <v>214.65493712896301</v>
-      </c>
-      <c r="BQ44" s="1">
-        <v>25</v>
-      </c>
-      <c r="BR44" s="1">
-        <v>0.97824841435466903</v>
-      </c>
-      <c r="BS44" s="1">
-        <v>17.6408016399538</v>
-      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1"/>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1"/>
+      <c r="AM44" s="1"/>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="1"/>
+      <c r="AR44" s="1"/>
+      <c r="AS44" s="1"/>
+      <c r="AT44" s="1"/>
+      <c r="AU44" s="1"/>
+      <c r="AV44" s="1"/>
+      <c r="AW44" s="1"/>
+      <c r="AX44" s="1"/>
+      <c r="AY44" s="1"/>
+      <c r="AZ44" s="1"/>
+      <c r="BA44" s="1"/>
+      <c r="BB44" s="1"/>
+      <c r="BC44" s="1"/>
+      <c r="BD44" s="1"/>
+      <c r="BE44" s="1"/>
+      <c r="BF44" s="1"/>
+      <c r="BG44" s="1"/>
+      <c r="BH44" s="1"/>
+      <c r="BI44" s="1"/>
+      <c r="BJ44" s="1"/>
+      <c r="BK44" s="1"/>
+      <c r="BL44" s="1"/>
+      <c r="BM44" s="1"/>
+      <c r="BN44" s="1"/>
+      <c r="BO44" s="1"/>
+      <c r="BP44" s="1"/>
+      <c r="BQ44" s="1"/>
+      <c r="BR44" s="1"/>
+      <c r="BS44" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
